--- a/Databases03/Final_work.xlsx
+++ b/Databases03/Final_work.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Опишите базу данных для школьного кабинета, в рамках которой можно фиксировать, кто и в какое время сидел за той или иной партой.</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Комментарий: для чего использовать TimeStamp, если уроки всегда начинаются и заканчиваются одинаково? Проще, как мне кажется, сделать списком отдельным</t>
+  </si>
+  <si>
+    <t>event_id</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,27 +662,27 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -687,7 +690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -695,7 +698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -715,22 +718,25 @@
         <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -749,23 +755,26 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1000</v>
       </c>
@@ -784,13 +793,16 @@
       <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -810,7 +822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -830,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -850,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -870,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
